--- a/class_diagram/controller/view/manager/成績管理sys_クラス図_controller_view_manager.xlsx
+++ b/class_diagram/controller/view/manager/成績管理sys_クラス図_controller_view_manager.xlsx
@@ -3,12 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29602"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="225" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37F476CF-55E4-4A48-9C3C-F4C8C427AD92}"/>
+  <xr:revisionPtr revIDLastSave="325" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB1C1222-39C3-4318-A1AE-827B92035D08}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MajorRegisterViewController" sheetId="2" r:id="rId1"/>
+    <sheet name="MajorsGetViewController" sheetId="3" r:id="rId1"/>
+    <sheet name="MajorRegisterViewController" sheetId="2" r:id="rId2"/>
+    <sheet name="MajorSetViewController" sheetId="6" r:id="rId3"/>
+    <sheet name="MajorsSearchGetViewController" sheetId="7" r:id="rId4"/>
+    <sheet name="MajorGetViewController" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -97,6 +102,286 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{822B201D-DF36-4DB1-A2CC-BF7C2A34D922}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1028700"/>
+          <a:ext cx="12677775" cy="5495925"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>MajorsGetViewController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F65AAC4-BD9B-4FE1-A19D-E8B9713BF231}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{822B201D-DF36-4DB1-A2CC-BF7C2A34D922}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="3848100"/>
+          <a:ext cx="9020175" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/manager/majors_view")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>majorsView ( session : HttpSession, model : Model)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>-r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="角丸四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -163,25 +448,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="四角形 7">
+        <xdr:cNvPr id="20" name="四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FD8E96F-E658-46EF-A276-8AC46292BE5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F04EFB40-7736-46DC-97E7-5B003CB43810}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{00E7FA22-B378-4775-8592-2CA38931F16C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E87078A1-8E3A-49C1-846B-D429949B8B56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -189,7 +474,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1143000" y="2809875"/>
+          <a:off x="1076325" y="2438400"/>
           <a:ext cx="9020175" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -338,7 +623,1120 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>formView( session : HttpSession, model : Model)</a:t>
+            <a:t>formView( session : HttpSession, model Model)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>-r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB4ECAA4-35DB-4E27-9A70-644DEE69D28A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="914400"/>
+          <a:ext cx="12677775" cy="5495925"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>MajorSetViewController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{715B1BC4-84F9-4826-BFA8-E308B842A5C6}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CB4ECAA4-35DB-4E27-9A70-644DEE69D28A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="2790825"/>
+          <a:ext cx="9020175" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/manager/major_update_view")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>formView( session : HttpSession, model : Model )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>-r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BDA1ECA-D038-492C-A71E-0957ED7D894C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="914400"/>
+          <a:ext cx="12677775" cy="5495925"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>MajorsSearchGetViewController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28910C36-AAD4-40E6-B9F0-4CC2D8E29FF9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5BDA1ECA-D038-492C-A71E-0957ED7D894C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="3028950"/>
+          <a:ext cx="9020175" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/manager/majors_view/serach")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>majorsView( session : HttpSession, model : Model )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>-r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E8444D-1F05-4FD4-9522-B155C0DBA544}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="914400"/>
+          <a:ext cx="12677775" cy="5495925"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>MajorGetViewController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFA3F735-826B-44DB-BE19-F606138D2F29}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{37E8444D-1F05-4FD4-9522-B155C0DBA544}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="3028950"/>
+          <a:ext cx="9020175" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/manager/major_view")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>majorView( session : HttpSession, model : Model)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -676,11 +2074,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A8633E-387F-40CD-BD90-4057C77280B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAD6FA3-7B26-471B-B3D8-8BC601EF4900}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -688,4 +2086,76 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A8633E-387F-40CD-BD90-4057C77280B7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8829FDBE-9BFC-4C0E-89F2-C13862F39AFB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2B0658-91AA-4EFF-842D-3941C1AF5682}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23901DE6-5F7D-4F8C-96AD-8F2E5E915077}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B570C0A3-9704-4150-B1EB-E56BF2A1A796}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/class_diagram/controller/view/manager/成績管理sys_クラス図_controller_view_manager.xlsx
+++ b/class_diagram/controller/view/manager/成績管理sys_クラス図_controller_view_manager.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29602"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="325" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB1C1222-39C3-4318-A1AE-827B92035D08}"/>
+  <xr:revisionPtr revIDLastSave="333" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F228272-2EB9-4F18-91AC-82B47622E93C}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MajorsGetViewController" sheetId="3" r:id="rId1"/>
     <sheet name="MajorRegisterViewController" sheetId="2" r:id="rId2"/>
     <sheet name="MajorSetViewController" sheetId="6" r:id="rId3"/>
     <sheet name="MajorsSearchGetViewController" sheetId="7" r:id="rId4"/>
-    <sheet name="MajorGetViewController" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="LoginViewController" sheetId="8" r:id="rId5"/>
+    <sheet name="MajorGetViewController" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1388,6 +1389,377 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A92F80CA-9A40-43A6-AC20-AAAD467F4BB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="914400"/>
+          <a:ext cx="12677775" cy="5495925"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>LoginViewController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B8EF61-9ED3-4EBE-8FE1-243E19603C4B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A92F80CA-9A40-43A6-AC20-AAAD467F4BB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="3028950"/>
+          <a:ext cx="9020175" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/manager/login")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>loginView( session : HttpSession, model : Model)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>-r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2122,8 +2494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2B0658-91AA-4EFF-842D-3941C1AF5682}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2134,6 +2506,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4375CD-953A-4466-B799-B5CFC9858533}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23901DE6-5F7D-4F8C-96AD-8F2E5E915077}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2148,7 +2535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B570C0A3-9704-4150-B1EB-E56BF2A1A796}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/class_diagram/controller/view/manager/成績管理sys_クラス図_controller_view_manager.xlsx
+++ b/class_diagram/controller/view/manager/成績管理sys_クラス図_controller_view_manager.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29607"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="333" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F228272-2EB9-4F18-91AC-82B47622E93C}"/>
+  <xr:revisionPtr revIDLastSave="337" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF4DFB4A-BCEF-48E8-8890-BB91A057971B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MajorsGetViewController" sheetId="3" r:id="rId1"/>
@@ -995,7 +995,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>formView( session : HttpSession, model : Model )</a:t>
+            <a:t>formView( session : HttpSession, model : Model, id : @RequestParam int )</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1737,7 +1737,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>loginView( session : HttpSession, model : Model)</a:t>
+            <a:t>loginView( session : HttpSession, model : Model )</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2108,7 +2108,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>majorView( session : HttpSession, model : Model)</a:t>
+            <a:t>majorView( session : HttpSession, model : Model, id : @RequestParam int )</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2479,8 +2479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8829FDBE-9BFC-4C0E-89F2-C13862F39AFB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2509,8 +2509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4375CD-953A-4466-B799-B5CFC9858533}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2525,7 +2525,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
